--- a/ドキュメント/02 詳細設計/データベース設計書.xlsx
+++ b/ドキュメント/02 詳細設計/データベース設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrainingRecordApp\ドキュメント\02 詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9167216-7DEE-457F-8C91-F631C09131D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1B39E6D-1A30-456D-AB7D-49652D3F1FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="99">
   <si>
     <t>テーブル情報</t>
   </si>
@@ -93,165 +95,6 @@
   </si>
   <si>
     <t>備考</t>
-  </si>
-  <si>
-    <t>カラム情報</t>
-  </si>
-  <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>論理名</t>
-  </si>
-  <si>
-    <t>物理名</t>
-  </si>
-  <si>
-    <t>データ型</t>
-  </si>
-  <si>
-    <t>デフォルト値</t>
-  </si>
-  <si>
-    <t>ユーザーID</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>ユーザー名</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-  </si>
-  <si>
-    <t>ハッシュ化</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>CURRENT_TIMESTAMP</t>
-  </si>
-  <si>
-    <t>登録日時</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>更新日時</t>
-  </si>
-  <si>
-    <t>インデックス情報</t>
-  </si>
-  <si>
-    <t>インデックス名</t>
-  </si>
-  <si>
-    <t>カラムリスト</t>
-  </si>
-  <si>
-    <t>主キー</t>
-  </si>
-  <si>
-    <t>ユニーク</t>
-  </si>
-  <si>
-    <t>idx_users_email</t>
-  </si>
-  <si>
-    <t>トレーニングID</t>
-  </si>
-  <si>
-    <t>部位</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
-    <t>詳細な部位</t>
-  </si>
-  <si>
-    <t>sub_part</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>idx_exercises_part_subpart</t>
-  </si>
-  <si>
-    <t>sessions</t>
-  </si>
-  <si>
-    <t>セッションID</t>
-  </si>
-  <si>
-    <t>exercise_id</t>
-  </si>
-  <si>
-    <t>重量</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>回数</t>
-  </si>
-  <si>
-    <t>reps</t>
-  </si>
-  <si>
-    <t>セット数</t>
-  </si>
-  <si>
-    <t>sets</t>
-  </si>
-  <si>
-    <t>セッション日付</t>
-  </si>
-  <si>
-    <t>session_date</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>idx_training_sessions_user_date</t>
-  </si>
-  <si>
-    <t>idx_training_sessions_exercise</t>
   </si>
   <si>
     <t>ログインユーザーを管理するテーブル</t>
@@ -261,7 +104,178 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>カラム情報</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>論理名</t>
+  </si>
+  <si>
+    <t>物理名</t>
+  </si>
+  <si>
+    <t>データ型</t>
+  </si>
+  <si>
+    <t>制約</t>
+    <rPh sb="0" eb="2">
+      <t>セイヤク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>デフォルト値</t>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PK, AUTO_INCREMENT</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>NOT NULL, UNIQUE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ハッシュ化</t>
+  </si>
+  <si>
+    <t>姓</t>
+  </si>
+  <si>
+    <t>family_name</t>
+  </si>
+  <si>
+    <t>名</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>年齢</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>体重</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>DECIMAL(5, 2)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>身長</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>NOT NULL
+DEFAULT CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>NOT NULL
+DEFAULT CURRENT_TIMESTAMP ON UPDATE 
+CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>インデックス情報</t>
+  </si>
+  <si>
+    <t>インデックス名</t>
+  </si>
+  <si>
+    <t>カラムリスト</t>
+  </si>
+  <si>
+    <t>主キー</t>
+  </si>
+  <si>
+    <t>ユニーク</t>
+  </si>
+  <si>
+    <t>idx_users_email</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>トレーニング種目テーブル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>exercises</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -272,8 +286,43 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>トレーニングID</t>
+  </si>
+  <si>
+    <t>種目名</t>
+    <rPh sb="0" eb="3">
+      <t>シュモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>部位</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>詳細な部位</t>
+  </si>
+  <si>
+    <t>sub_part</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>FK, NOT NULL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>idx_exercises_part_subpart</t>
+  </si>
+  <si>
     <t>トレーニングセッションテーブル</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sessions</t>
   </si>
   <si>
     <t>トレーニングセッションを管理するテーブル</t>
@@ -283,61 +332,44 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>制約</t>
-    <rPh sb="0" eb="2">
-      <t>セイヤク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>PK, AUTO_INCREMENT</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>NOT NULL, UNIQUE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>NOT NULL
-DEFAULT CURRENT_TIMESTAMP</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>NOT NULL
-DEFAULT CURRENT_TIMESTAMP ON UPDATE 
-CURRENT_TIMESTAMP</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>FK, NOT NULL</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>種目名</t>
-    <rPh sb="0" eb="3">
-      <t>シュモクメイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>exercises</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>DECIMAL(5, 2)</t>
-    <phoneticPr fontId="3"/>
+    <t>セッションID</t>
+  </si>
+  <si>
+    <t>exercise_id</t>
+  </si>
+  <si>
+    <t>重量</t>
+  </si>
+  <si>
+    <t>回数</t>
+  </si>
+  <si>
+    <t>reps</t>
+  </si>
+  <si>
+    <t>セット数</t>
+  </si>
+  <si>
+    <t>sets</t>
+  </si>
+  <si>
+    <t>セッション日付</t>
+  </si>
+  <si>
+    <t>session_date</t>
+  </si>
+  <si>
+    <t>DATE</t>
   </si>
   <si>
     <t>DATETIME</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>idx_training_sessions_user_date</t>
+  </si>
+  <si>
+    <t>idx_training_sessions_exercise</t>
   </si>
 </sst>
 </file>
@@ -1296,15 +1328,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.75" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.375" style="16" bestFit="1" customWidth="1"/>
@@ -1415,7 +1447,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="48" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
@@ -1441,7 +1473,7 @@
     </row>
     <row r="12" spans="1:7" ht="19.5" thickBot="1">
       <c r="A12" s="47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
@@ -1452,22 +1484,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>18</v>
@@ -1478,16 +1510,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="33"/>
@@ -1497,16 +1529,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
@@ -1516,16 +1548,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="33"/>
@@ -1535,135 +1567,247 @@
         <v>4</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="37.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="31">
         <v>5</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="56.25">
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="31">
         <v>6</v>
       </c>
       <c r="B19" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="31">
+        <v>7</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75">
+      <c r="A21" s="31">
+        <v>8</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75">
+      <c r="A22" s="31">
         <v>9</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="32" t="s">
+      <c r="B22" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A20" s="34">
-        <v>7</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="22" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A22" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="19" t="s">
+      <c r="A23" s="31">
+        <v>10</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="1:7" ht="37.5">
+      <c r="A24" s="31">
+        <v>11</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="56.25">
+      <c r="A25" s="31">
+        <v>12</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A26" s="34">
+        <v>13</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="28" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A28" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A24" s="34">
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A30" s="34">
         <v>1</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
+      <c r="B30" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A28:G28"/>
     <mergeCell ref="B8:G10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
@@ -1675,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19387A3-EAA4-47EE-8023-2CC3F19249D5}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1753,7 +1897,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>12</v>
@@ -1769,7 +1913,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>16</v>
@@ -1792,7 +1936,7 @@
     </row>
     <row r="8" spans="1:7" s="16" customFormat="1">
       <c r="B8" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="57"/>
       <c r="D8" s="57"/>
@@ -1818,7 +1962,7 @@
     </row>
     <row r="12" spans="1:7" ht="19.5" thickBot="1">
       <c r="A12" s="47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
@@ -1829,22 +1973,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>18</v>
@@ -1855,16 +1999,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
@@ -1874,16 +2018,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
@@ -1893,16 +2037,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
@@ -1912,13 +2056,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1929,16 +2073,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -1951,19 +2095,19 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="56.25">
@@ -1974,19 +2118,19 @@
         <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="19.5" thickBot="1">
@@ -2002,7 +2146,7 @@
     </row>
     <row r="23" spans="1:7" ht="19.5" thickBot="1">
       <c r="A23" s="47" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
@@ -2013,19 +2157,19 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>18</v>
@@ -2037,10 +2181,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2052,10 +2196,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2089,8 +2233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF3CB6C-74BA-4B91-8D9C-38C8C4453B72}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2167,7 +2311,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>12</v>
@@ -2183,7 +2327,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>16</v>
@@ -2206,7 +2350,7 @@
     </row>
     <row r="8" spans="1:7" s="16" customFormat="1">
       <c r="B8" s="48" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C8" s="57"/>
       <c r="D8" s="57"/>
@@ -2232,7 +2376,7 @@
     </row>
     <row r="12" spans="1:7" ht="19.5" thickBot="1">
       <c r="A12" s="47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
@@ -2243,22 +2387,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>18</v>
@@ -2269,16 +2413,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
@@ -2288,16 +2432,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
@@ -2307,16 +2451,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
@@ -2326,16 +2470,16 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
@@ -2345,16 +2489,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -2364,16 +2508,16 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
@@ -2383,16 +2527,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
@@ -2405,19 +2549,19 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="56.25">
@@ -2428,19 +2572,19 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19.5" thickBot="1">
@@ -2456,7 +2600,7 @@
     </row>
     <row r="25" spans="1:7" ht="19.5" thickBot="1">
       <c r="A25" s="47" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="47"/>
@@ -2467,19 +2611,19 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>18</v>
@@ -2491,10 +2635,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2506,10 +2650,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2521,10 +2665,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>

--- a/ドキュメント/02 詳細設計/データベース設計書.xlsx
+++ b/ドキュメント/02 詳細設計/データベース設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrainingRecordApp\ドキュメント\02 詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1B39E6D-1A30-456D-AB7D-49652D3F1FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67931A22-33D7-4A3C-ABC3-14544102EFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="100">
   <si>
     <t>テーブル情報</t>
   </si>
@@ -299,7 +299,7 @@
     <t>部位</t>
   </si>
   <si>
-    <t>part</t>
+    <t>main_part</t>
   </si>
   <si>
     <t>詳細な部位</t>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>idx_exercises_part_subpart</t>
+  </si>
+  <si>
+    <t>part</t>
   </si>
   <si>
     <t>トレーニングセッションテーブル</t>
@@ -1330,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1819,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19387A3-EAA4-47EE-8023-2CC3F19249D5}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2184,7 +2187,7 @@
         <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2311,7 +2314,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>12</v>
@@ -2327,7 +2330,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>16</v>
@@ -2350,7 +2353,7 @@
     </row>
     <row r="8" spans="1:7" s="16" customFormat="1">
       <c r="B8" s="48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" s="57"/>
       <c r="D8" s="57"/>
@@ -2413,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -2435,7 +2438,7 @@
         <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>48</v>
@@ -2470,7 +2473,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>50</v>
@@ -2489,10 +2492,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>48</v>
@@ -2508,10 +2511,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>48</v>
@@ -2527,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>40</v>
@@ -2552,7 +2555,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E21" s="41" t="s">
         <v>58</v>
@@ -2635,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>80</v>
@@ -2650,10 +2653,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2665,10 +2668,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>

--- a/ドキュメント/02 詳細設計/データベース設計書.xlsx
+++ b/ドキュメント/02 詳細設計/データベース設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrainingRecordApp\ドキュメント\02 詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67931A22-33D7-4A3C-ABC3-14544102EFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2218AF06-B699-458F-AB34-E3B5B7CFA334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="101">
   <si>
     <t>テーブル情報</t>
   </si>
@@ -265,12 +263,6 @@
     <t>ユニーク</t>
   </si>
   <si>
-    <t>idx_users_email</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>トレーニング種目テーブル</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -315,12 +307,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>idx_exercises_part_subpart</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
     <t>トレーニングセッションテーブル</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -369,10 +355,65 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>idx_training_sessions_user_date</t>
-  </si>
-  <si>
-    <t>idx_training_sessions_exercise</t>
+    <t>profile_image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロフィール画像</t>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイコン画像</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン時に使用</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>胸、背中等</t>
+    <rPh sb="0" eb="1">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セナカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>大胸筋上部、広背筋等</t>
+    <rPh sb="0" eb="3">
+      <t>ダイキョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>コウハイキn</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -454,7 +495,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -727,32 +768,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -808,7 +823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -816,9 +831,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -837,14 +849,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -912,18 +920,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -945,46 +941,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1331,326 +1327,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="3.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="20"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="21">
         <v>45537</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="25"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="24">
-        <v>45537</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="25"/>
+      <c r="E4" s="21">
+        <v>45539</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="25"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="25"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:7" ht="19.5" thickBot="1">
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="12" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="31">
+      <c r="A14" s="28">
+        <f>ROW()-13</f>
         <v>1</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="31">
+      <c r="A15" s="28">
+        <f t="shared" ref="A15:A27" si="0">ROW()-13</f>
         <v>2</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="31">
+      <c r="A16" s="28">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="31">
+      <c r="A17" s="28">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33" t="s">
+      <c r="F17" s="29"/>
+      <c r="G17" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="31">
+      <c r="A18" s="28">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="31">
+      <c r="A19" s="28">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="31">
+      <c r="A20" s="28">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75">
-      <c r="A21" s="31">
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="28">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="29" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1659,17 +1665,18 @@
       <c r="E21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75">
-      <c r="A22" s="31">
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="28">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="29" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1678,139 +1685,175 @@
       <c r="E22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="31">
+      <c r="A23" s="28">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="1:7" ht="37.5">
-      <c r="A24" s="31">
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="28">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" ht="37.5">
+      <c r="A25" s="28">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C25" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D25" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E25" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F25" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G25" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="56.25">
-      <c r="A25" s="31">
-        <v>12</v>
-      </c>
-      <c r="B25" s="32" t="s">
+    <row r="26" spans="1:7" ht="56.25">
+      <c r="A26" s="28">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B26" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C26" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D26" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E26" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F26" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G26" s="30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A26" s="34">
-        <v>13</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-    </row>
-    <row r="28" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A28" s="47" t="s">
+    <row r="27" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A27" s="31">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="29" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A29" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="17" t="s">
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B30" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C30" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D30" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E30" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F30" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="38"/>
-    </row>
-    <row r="30" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A30" s="34">
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="28">
         <v>1</v>
       </c>
-      <c r="B30" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="28">
+        <v>2</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A33" s="31">
+        <v>3</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
     <mergeCell ref="B8:G10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
@@ -1822,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19387A3-EAA4-47EE-8023-2CC3F19249D5}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1834,194 +1877,196 @@
     <col min="4" max="4" width="15.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="20"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="23" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="21">
         <v>45537</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="25"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="24">
-        <v>45537</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="25"/>
+      <c r="E4" s="21">
+        <v>45539</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" s="13" customFormat="1">
+      <c r="B7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1">
+      <c r="B8" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+    </row>
+    <row r="9" spans="1:7" s="13" customFormat="1">
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+    </row>
+    <row r="10" spans="1:7" s="13" customFormat="1" ht="19.5" thickBot="1">
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A12" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="28">
+        <f>ROW()-13</f>
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" s="16" customFormat="1">
-      <c r="B7" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" s="16" customFormat="1">
-      <c r="B8" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-    </row>
-    <row r="9" spans="1:7" s="16" customFormat="1">
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-    </row>
-    <row r="10" spans="1:7" s="16" customFormat="1" ht="19.5" thickBot="1">
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-    </row>
-    <row r="12" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A12" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="29" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3">
+      <c r="A15" s="28">
+        <f t="shared" ref="A15:A21" si="0">ROW()-13</f>
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>32</v>
@@ -2029,69 +2074,75 @@
       <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="32" t="s">
-        <v>40</v>
+      <c r="E15" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3">
+      <c r="A16" s="28">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="29" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3">
+      <c r="A17" s="28">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3">
+      <c r="A18" s="28">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="37.5">
-      <c r="A19" s="3">
+      <c r="A19" s="28">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2100,21 +2151,22 @@
       <c r="C19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="34" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="56.25">
-      <c r="A20" s="3">
+      <c r="A20" s="28">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2123,102 +2175,95 @@
       <c r="C20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="34" t="s">
         <v>62</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A21" s="10">
+      <c r="A21" s="31">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="9"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3">
+      <c r="A25" s="28">
         <v>1</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="3">
+      <c r="A26" s="28">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="4"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A27" s="10">
+      <c r="A27" s="31">
         <v>3</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2236,8 +2281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF3CB6C-74BA-4B91-8D9C-38C8C4453B72}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:E17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2253,170 +2298,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="20"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="23" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="21">
         <v>45537</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="25"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="24">
-        <v>45537</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="25"/>
+      <c r="E4" s="21">
+        <v>45539</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="25"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" s="16" customFormat="1">
-      <c r="B7" s="27" t="s">
+      <c r="F6" s="38"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" s="13" customFormat="1">
+      <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" s="16" customFormat="1">
-      <c r="B8" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-    </row>
-    <row r="9" spans="1:7" s="16" customFormat="1">
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-    </row>
-    <row r="10" spans="1:7" s="16" customFormat="1" ht="19.5" thickBot="1">
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1">
+      <c r="B8" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+    </row>
+    <row r="9" spans="1:7" s="13" customFormat="1">
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+    </row>
+    <row r="10" spans="1:7" s="13" customFormat="1" ht="19.5" thickBot="1">
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
     </row>
     <row r="12" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3">
+      <c r="A14" s="28">
+        <f>ROW()-13</f>
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -2428,52 +2474,55 @@
         <v>30</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3">
+      <c r="A15" s="28">
+        <f t="shared" ref="A15:A23" si="0">ROW()-13</f>
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3">
+      <c r="A16" s="28">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3">
+      <c r="A17" s="28">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>50</v>
@@ -2485,17 +2534,18 @@
         <v>40</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3">
+      <c r="A18" s="28">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>48</v>
@@ -2504,17 +2554,18 @@
         <v>40</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3">
+      <c r="A19" s="28">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>48</v>
@@ -2523,29 +2574,31 @@
         <v>40</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="3">
+      <c r="A20" s="28">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="37.5">
-      <c r="A21" s="3">
+      <c r="A21" s="28">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2555,20 +2608,21 @@
         <v>56</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="34" t="s">
         <v>58</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="56.25">
-      <c r="A22" s="3">
+      <c r="A22" s="28">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2580,103 +2634,92 @@
       <c r="D22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="34" t="s">
         <v>62</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A23" s="10">
+      <c r="A23" s="31">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="3">
+      <c r="A27" s="28">
         <v>1</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="4"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="3">
+      <c r="A28" s="28">
         <v>2</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="4"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A29" s="10">
+      <c r="A29" s="31">
         <v>3</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/ドキュメント/02 詳細設計/データベース設計書.xlsx
+++ b/ドキュメント/02 詳細設計/データベース設計書.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrainingRecordApp\ドキュメント\02 詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2218AF06-B699-458F-AB34-E3B5B7CFA334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A5012E-758F-42DA-8833-B9C773A4D2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
     <sheet name="exercises" sheetId="3" r:id="rId2"/>
     <sheet name="sessions" sheetId="4" r:id="rId3"/>
+    <sheet name="sessions_sets" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="106">
   <si>
     <t>テーブル情報</t>
   </si>
@@ -334,12 +335,6 @@
   </si>
   <si>
     <t>reps</t>
-  </si>
-  <si>
-    <t>セット数</t>
-  </si>
-  <si>
-    <t>sets</t>
   </si>
   <si>
     <t>セッション日付</t>
@@ -413,6 +408,52 @@
   </si>
   <si>
     <t>TEXT</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セット詳細テーブル</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トレーニングセッションの各セットの重量と回数を管理するテーブル</t>
+    <rPh sb="12" eb="13">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セットID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セッションID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>session_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>set_number</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セット番号</t>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1329,7 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:G33"/>
     </sheetView>
   </sheetViews>
@@ -1543,7 +1584,7 @@
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1712,13 +1753,13 @@
         <v>11</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
@@ -2099,7 +2140,7 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2119,7 +2160,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2128,13 +2169,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2279,10 +2320,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF3CB6C-74BA-4B91-8D9C-38C8C4453B72}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2349,7 +2390,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="21">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="22"/>
@@ -2478,7 +2519,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="28">
-        <f t="shared" ref="A15:A23" si="0">ROW()-13</f>
+        <f t="shared" ref="A15:A20" si="0">ROW()-13</f>
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2522,13 +2563,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>40</v>
@@ -2536,199 +2577,507 @@
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="37.5">
       <c r="A18" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7">
+        <v>91</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="56.25">
       <c r="A19" s="28">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="28">
+        <v>57</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A20" s="31">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="37.5">
-      <c r="A21" s="28">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="56.25">
-      <c r="A22" s="28">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A23" s="31">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A25" s="40" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A22" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="14" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B23" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D23" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E23" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="28">
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="28">
         <v>1</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="28">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="28">
         <v>2</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A29" s="31">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A26" s="31">
         <v>3</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A22:G22"/>
     <mergeCell ref="B8:G10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA461708-A9B2-4B1F-AD64-E79697CC9F10}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="21">
+        <v>45537</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="21">
+        <v>45540</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" s="13" customFormat="1">
+      <c r="B7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1">
+      <c r="B8" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+    </row>
+    <row r="9" spans="1:7" s="13" customFormat="1">
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+    </row>
+    <row r="10" spans="1:7" s="13" customFormat="1" ht="19.5" thickBot="1">
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A12" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="28">
+        <f>ROW()-13</f>
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="28">
+        <f t="shared" ref="A15:A19" si="0">ROW()-13</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A19" s="31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A21" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="28">
+        <v>1</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="28">
+        <v>2</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A25" s="31">
+        <v>3</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A21:G21"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ドキュメント/02 詳細設計/データベース設計書.xlsx
+++ b/ドキュメント/02 詳細設計/データベース設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrainingRecordApp\ドキュメント\02 詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A5012E-758F-42DA-8833-B9C773A4D2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{645C08D9-8224-4A1C-BA4B-C6108C6FBE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="108">
   <si>
     <t>テーブル情報</t>
   </si>
@@ -152,219 +154,6 @@
   </si>
   <si>
     <t>NOT NULL, UNIQUE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ハッシュ化</t>
-  </si>
-  <si>
-    <t>姓</t>
-  </si>
-  <si>
-    <t>family_name</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>年齢</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>体重</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>DECIMAL(5, 2)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>身長</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>性別</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>NOT NULL
-DEFAULT CURRENT_TIMESTAMP</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CURRENT_TIMESTAMP</t>
-  </si>
-  <si>
-    <t>登録日時</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>NOT NULL
-DEFAULT CURRENT_TIMESTAMP ON UPDATE 
-CURRENT_TIMESTAMP</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>更新日時</t>
-  </si>
-  <si>
-    <t>インデックス情報</t>
-  </si>
-  <si>
-    <t>インデックス名</t>
-  </si>
-  <si>
-    <t>カラムリスト</t>
-  </si>
-  <si>
-    <t>主キー</t>
-  </si>
-  <si>
-    <t>ユニーク</t>
-  </si>
-  <si>
-    <t>トレーニング種目テーブル</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>exercises</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>トレーニング種目を管理するテーブル</t>
-    <rPh sb="9" eb="11">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>トレーニングID</t>
-  </si>
-  <si>
-    <t>種目名</t>
-    <rPh sb="0" eb="3">
-      <t>シュモクメイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>部位</t>
-  </si>
-  <si>
-    <t>main_part</t>
-  </si>
-  <si>
-    <t>詳細な部位</t>
-  </si>
-  <si>
-    <t>sub_part</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>FK, NOT NULL</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>トレーニングセッションテーブル</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>sessions</t>
-  </si>
-  <si>
-    <t>トレーニングセッションを管理するテーブル</t>
-    <rPh sb="12" eb="14">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>セッションID</t>
-  </si>
-  <si>
-    <t>exercise_id</t>
-  </si>
-  <si>
-    <t>重量</t>
-  </si>
-  <si>
-    <t>回数</t>
-  </si>
-  <si>
-    <t>reps</t>
-  </si>
-  <si>
-    <t>セッション日付</t>
-  </si>
-  <si>
-    <t>session_date</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>profile_image</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>プロフィール画像</t>
-    <rPh sb="6" eb="8">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アイコン画像</t>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -376,6 +165,167 @@
       <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ハッシュ化</t>
+  </si>
+  <si>
+    <t>姓</t>
+  </si>
+  <si>
+    <t>family_name</t>
+  </si>
+  <si>
+    <t>名</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>年齢</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>体重</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>DECIMAL(5, 2)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>身長</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>1:男性
+2:女性
+3:その他
+4:不明</t>
+  </si>
+  <si>
+    <t>プロフィール画像</t>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>profile_image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>NOT NULL
+DEFAULT CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>NOT NULL
+DEFAULT CURRENT_TIMESTAMP ON UPDATE 
+CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>インデックス情報</t>
+  </si>
+  <si>
+    <t>インデックス名</t>
+  </si>
+  <si>
+    <t>カラムリスト</t>
+  </si>
+  <si>
+    <t>主キー</t>
+  </si>
+  <si>
+    <t>ユニーク</t>
+  </si>
+  <si>
+    <t>トレーニング種目テーブル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>exercises</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トレーニング種目を管理するテーブル</t>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トレーニングID</t>
+  </si>
+  <si>
+    <t>種目名</t>
+    <rPh sb="0" eb="3">
+      <t>シュモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>部位</t>
+  </si>
+  <si>
+    <t>main_part</t>
   </si>
   <si>
     <t>胸、背中等</t>
@@ -389,6 +339,12 @@
       <t>トウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>詳細な部位</t>
+  </si>
+  <si>
+    <t>sub_part</t>
   </si>
   <si>
     <t>大胸筋上部、広背筋等</t>
@@ -407,7 +363,53 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>TEXT</t>
+    <t>アイコン画像</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トレーニングセッションテーブル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sessions</t>
+  </si>
+  <si>
+    <t>トレーニングセッションを管理するテーブル</t>
+    <rPh sb="12" eb="14">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セッションID</t>
+  </si>
+  <si>
+    <t>種目ID</t>
+  </si>
+  <si>
+    <t>exercise_id</t>
+  </si>
+  <si>
+    <t>FK, NOT NULL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>セッション日付</t>
+  </si>
+  <si>
+    <t>session_date</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -446,15 +448,24 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>set_number</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>セット番号</t>
     <rPh sb="3" eb="5">
       <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>set_number</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>重量</t>
+  </si>
+  <si>
+    <t>回数</t>
+  </si>
+  <si>
+    <t>reps</t>
   </si>
 </sst>
 </file>
@@ -864,7 +875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1032,6 +1043,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1370,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1427,7 +1441,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
@@ -1584,7 +1598,7 @@
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="30" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1593,13 +1607,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>34</v>
@@ -1613,20 +1627,20 @@
         <v>4</v>
       </c>
       <c r="B17" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>37</v>
-      </c>
       <c r="E17" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1635,16 +1649,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="30"/>
@@ -1655,16 +1669,16 @@
         <v>6</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="30"/>
@@ -1675,16 +1689,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="30"/>
@@ -1695,16 +1709,16 @@
         <v>8</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="30"/>
@@ -1715,37 +1729,39 @@
         <v>9</v>
       </c>
       <c r="B22" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="60.75">
       <c r="A23" s="28">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
+      <c r="G23" s="58" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="28">
@@ -1753,13 +1769,13 @@
         <v>11</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
@@ -1774,19 +1790,19 @@
         <v>6</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="56.25">
@@ -1798,19 +1814,19 @@
         <v>9</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="19.5" thickBot="1">
@@ -1827,7 +1843,7 @@
     </row>
     <row r="29" spans="1:7" ht="19.5" thickBot="1">
       <c r="A29" s="40" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
@@ -1841,16 +1857,16 @@
         <v>21</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>18</v>
@@ -1906,7 +1922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19387A3-EAA4-47EE-8023-2CC3F19249D5}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -1984,7 +2000,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>12</v>
@@ -2000,7 +2016,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>16</v>
@@ -2023,7 +2039,7 @@
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1">
       <c r="B8" s="41" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
@@ -2087,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -2107,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>32</v>
@@ -2127,20 +2143,20 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2149,10 +2165,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>33</v>
@@ -2160,7 +2176,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2169,13 +2185,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2190,19 +2206,19 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="56.25">
@@ -2214,19 +2230,19 @@
         <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="19.5" thickBot="1">
@@ -2243,7 +2259,7 @@
     </row>
     <row r="23" spans="1:7" ht="19.5" thickBot="1">
       <c r="A23" s="40" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -2257,16 +2273,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>18</v>
@@ -2322,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF3CB6C-74BA-4B91-8D9C-38C8C4453B72}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2400,7 +2416,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>12</v>
@@ -2416,7 +2432,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>16</v>
@@ -2439,7 +2455,7 @@
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1">
       <c r="B8" s="41" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
@@ -2503,13 +2519,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>30</v>
@@ -2523,16 +2539,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
@@ -2546,13 +2562,13 @@
         <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
@@ -2563,16 +2579,16 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
@@ -2586,19 +2602,19 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="56.25">
@@ -2610,19 +2626,19 @@
         <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="19.5" thickBot="1">
@@ -2639,7 +2655,7 @@
     </row>
     <row r="22" spans="1:7" ht="19.5" thickBot="1">
       <c r="A22" s="40" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -2653,16 +2669,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>18</v>
@@ -2719,7 +2735,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2770,7 +2786,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="21">
-        <v>45537</v>
+        <v>45540</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="22"/>
@@ -2796,7 +2812,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>12</v>
@@ -2812,7 +2828,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>16</v>
@@ -2835,7 +2851,7 @@
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1">
       <c r="B8" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
@@ -2899,13 +2915,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>30</v>
@@ -2919,16 +2935,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
@@ -2939,16 +2955,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
@@ -2959,16 +2975,16 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
@@ -2979,16 +2995,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
@@ -3007,7 +3023,7 @@
     </row>
     <row r="21" spans="1:7" ht="19.5" thickBot="1">
       <c r="A21" s="40" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B21" s="40"/>
       <c r="C21" s="40"/>
@@ -3021,16 +3037,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>18</v>
